--- a/MvcApplication2/Content/ExcelPackageNewFile.xlsx
+++ b/MvcApplication2/Content/ExcelPackageNewFile.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Requests" sheetId="1" r:id="R0748299610704aa5"/>
-    <sheet name="Patients" sheetId="2" r:id="Rc1feba65d1204d3f"/>
-    <sheet name="RequestsStats" sheetId="3" r:id="Ra0fa3f23e1e34e8f"/>
+    <sheet name="Requests" sheetId="1" r:id="R924068f7cdff4c91"/>
+    <sheet name="Patients" sheetId="2" r:id="Rea12d04b523a4682"/>
+    <sheet name="RequestsStats" sheetId="3" r:id="Rd637d47ad58342a6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Request ID</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>2013 三月</t>
-  </si>
-  <si>
-    <t>2013 四月</t>
   </si>
   <si>
     <t>Total Number of Request</t>
@@ -282,12 +279,12 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$1:$C$1</c:f>
+              <c:f>'RequestsStats'!$B$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$2:$C$2</c:f>
+              <c:f>'RequestsStats'!$B$2</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -309,12 +306,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$1:$C$1</c:f>
+              <c:f>'RequestsStats'!$B$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$3:$C$3</c:f>
+              <c:f>'RequestsStats'!$B$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -376,8 +373,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -392,7 +389,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra3b09be471614a40"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9deb59acc41b463e"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -939,7 +936,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -947,7 +944,6 @@
   <cols>
     <col min="1" max="1" width="24.1253696017795" customWidth="1" style="1"/>
     <col min="2" max="2" width="13" customWidth="1" style="1"/>
-    <col min="3" max="3" width="13" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -957,35 +953,26 @@
       <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>2.33333333333333</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="4"/>
   </sheetData>
   <headerFooter/>
-  <drawing r:id="Rbea76cd6e0aa4c92"/>
+  <drawing r:id="Re068434a4aec4307"/>
 </worksheet>
 </file>
--- a/MvcApplication2/Content/ExcelPackageNewFile.xlsx
+++ b/MvcApplication2/Content/ExcelPackageNewFile.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Requests" sheetId="1" r:id="R924068f7cdff4c91"/>
-    <sheet name="Patients" sheetId="2" r:id="Rea12d04b523a4682"/>
-    <sheet name="RequestsStats" sheetId="3" r:id="Rd637d47ad58342a6"/>
+    <sheet name="Requests" sheetId="1" r:id="R5b3da0914a1647db"/>
+    <sheet name="Patients" sheetId="2" r:id="R0dbc359542de4937"/>
+    <sheet name="RequestsStats" sheetId="3" r:id="R91931f8bfee540c8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Request ID</t>
   </si>
@@ -54,10 +54,10 @@
     <t>CT0</t>
   </si>
   <si>
-    <t>2013/3/12 1:40:05</t>
-  </si>
-  <si>
-    <t>2013/3/12 0:00:00</t>
+    <t>3/12/2013 1:40:05 AM</t>
+  </si>
+  <si>
+    <t>3/12/2013 12:00:00 AM</t>
   </si>
   <si>
     <t>2</t>
@@ -72,6 +72,9 @@
     <t>CT1</t>
   </si>
   <si>
+    <t>3/12/2013 1:41:05 AM</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
     <t>CT2</t>
   </si>
   <si>
+    <t>3/12/2013 1:42:05 AM</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -96,6 +102,9 @@
     <t>CT3</t>
   </si>
   <si>
+    <t>3/12/2013 1:35:05 AM</t>
+  </si>
+  <si>
     <t>CallerName4</t>
   </si>
   <si>
@@ -105,6 +114,9 @@
     <t>CT4</t>
   </si>
   <si>
+    <t>3/12/2013 1:45:05 AM</t>
+  </si>
+  <si>
     <t>CallerName5</t>
   </si>
   <si>
@@ -114,6 +126,9 @@
     <t>CT5</t>
   </si>
   <si>
+    <t>3/12/2013 1:42:08 AM</t>
+  </si>
+  <si>
     <t>CallerName6</t>
   </si>
   <si>
@@ -123,6 +138,9 @@
     <t>CT6</t>
   </si>
   <si>
+    <t>3/12/2013 1:47:05 AM</t>
+  </si>
+  <si>
     <t>CallerName7</t>
   </si>
   <si>
@@ -132,6 +150,9 @@
     <t>CT7</t>
   </si>
   <si>
+    <t>3/15/2013 1:40:05 AM</t>
+  </si>
+  <si>
     <t>CallerName8</t>
   </si>
   <si>
@@ -141,6 +162,9 @@
     <t>CT8</t>
   </si>
   <si>
+    <t>3/17/2013 1:40:05 AM</t>
+  </si>
+  <si>
     <t>PatientID</t>
   </si>
   <si>
@@ -195,7 +219,7 @@
     <t>Month</t>
   </si>
   <si>
-    <t>2013 三月</t>
+    <t>2013 March</t>
   </si>
   <si>
     <t>Total Number of Request</t>
@@ -373,8 +397,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -389,7 +413,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9deb59acc41b463e"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R70d157dc5a3b44ab"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -406,15 +430,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.4837883843316" customWidth="1"/>
-    <col min="2" max="2" width="11.0706303914388" customWidth="1"/>
-    <col min="3" max="3" width="15.6410319010417" customWidth="1"/>
-    <col min="4" max="4" width="12.2393408881293" customWidth="1"/>
-    <col min="5" max="5" width="12.0095774332682" customWidth="1"/>
-    <col min="6" max="6" width="10.6896803114149" customWidth="1"/>
-    <col min="7" max="7" width="9.6512688530816" customWidth="1"/>
-    <col min="8" max="8" width="17.2115800645616" customWidth="1"/>
-    <col min="9" max="9" width="17.2115800645616" customWidth="1"/>
+    <col min="1" max="1" width="10.9261823381696" customWidth="1"/>
+    <col min="2" max="2" width="11.5297906058175" customWidth="1"/>
+    <col min="3" max="3" width="16.2307761056083" customWidth="1"/>
+    <col min="4" max="4" width="12.7318921770368" customWidth="1"/>
+    <col min="5" max="5" width="12.4955640520368" customWidth="1"/>
+    <col min="6" max="6" width="11.1379568917411" customWidth="1"/>
+    <col min="7" max="7" width="10.0698765345982" customWidth="1"/>
+    <col min="8" max="8" width="21.4289703369141" customWidth="1"/>
+    <col min="9" max="9" width="22.5226266043527" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -499,7 +523,7 @@
         <v>2</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>14</v>
@@ -513,22 +537,22 @@
         <v>1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="0">
         <v>3</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>14</v>
@@ -542,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="0">
         <v>4</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>14</v>
@@ -571,22 +595,22 @@
         <v>1</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G6" s="0">
         <v>5</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>14</v>
@@ -603,19 +627,19 @@
         <v>15</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="0">
         <v>6</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>14</v>
@@ -632,19 +656,19 @@
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G8" s="0">
         <v>7</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>14</v>
@@ -661,19 +685,19 @@
         <v>15</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G9" s="0">
         <v>8</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>14</v>
@@ -687,22 +711,22 @@
         <v>1</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" s="0">
         <v>9</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>14</v>
@@ -727,19 +751,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -747,7 +771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" s="0">
         <v>10</v>
@@ -756,7 +780,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -764,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C3" s="0">
         <v>11</v>
@@ -773,7 +797,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -781,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C4" s="0">
         <v>12</v>
@@ -790,7 +814,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -798,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C5" s="0">
         <v>13</v>
@@ -807,7 +831,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -815,7 +839,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C6" s="0">
         <v>14</v>
@@ -824,7 +848,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
@@ -832,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C7" s="0">
         <v>15</v>
@@ -841,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -849,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C8" s="0">
         <v>16</v>
@@ -858,7 +882,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -866,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0">
         <v>17</v>
@@ -875,7 +899,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -883,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C10" s="0">
         <v>18</v>
@@ -892,7 +916,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -900,7 +924,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C11" s="0">
         <v>19</v>
@@ -909,7 +933,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -917,7 +941,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0">
         <v>47</v>
@@ -926,7 +950,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -942,21 +966,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1253696017795" customWidth="1" style="1"/>
+    <col min="1" max="1" width="24.957523890904" customWidth="1" style="1"/>
     <col min="2" max="2" width="13" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
@@ -964,7 +988,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1">
         <v>2.33333333333333</v>
@@ -973,6 +997,6 @@
     <row r="4"/>
   </sheetData>
   <headerFooter/>
-  <drawing r:id="Re068434a4aec4307"/>
+  <drawing r:id="R8814961794404233"/>
 </worksheet>
 </file>
--- a/MvcApplication2/Content/ExcelPackageNewFile.xlsx
+++ b/MvcApplication2/Content/ExcelPackageNewFile.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Requests" sheetId="1" r:id="R5b3da0914a1647db"/>
-    <sheet name="Patients" sheetId="2" r:id="R0dbc359542de4937"/>
-    <sheet name="RequestsStats" sheetId="3" r:id="R91931f8bfee540c8"/>
+    <sheet name="Requests" sheetId="1" r:id="R943f61d49f1b46dc"/>
+    <sheet name="Patients" sheetId="2" r:id="Rc90dc8acb4cd4944"/>
+    <sheet name="RequestsStats" sheetId="3" r:id="R23b5841eb0104bb8"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Request ID</t>
   </si>
@@ -54,10 +54,10 @@
     <t>CT0</t>
   </si>
   <si>
-    <t>3/12/2013 1:40:05 AM</t>
-  </si>
-  <si>
-    <t>3/12/2013 12:00:00 AM</t>
+    <t>2013/3/12 1:40:05</t>
+  </si>
+  <si>
+    <t>2013/3/12 0:00:00</t>
   </si>
   <si>
     <t>2</t>
@@ -72,7 +72,7 @@
     <t>CT1</t>
   </si>
   <si>
-    <t>3/12/2013 1:41:05 AM</t>
+    <t>2013/3/12 1:41:05</t>
   </si>
   <si>
     <t>3</t>
@@ -87,7 +87,7 @@
     <t>CT2</t>
   </si>
   <si>
-    <t>3/12/2013 1:42:05 AM</t>
+    <t>2013/3/12 1:42:05</t>
   </si>
   <si>
     <t>4</t>
@@ -102,7 +102,7 @@
     <t>CT3</t>
   </si>
   <si>
-    <t>3/12/2013 1:35:05 AM</t>
+    <t>2013/3/12 1:35:05</t>
   </si>
   <si>
     <t>CallerName4</t>
@@ -114,7 +114,7 @@
     <t>CT4</t>
   </si>
   <si>
-    <t>3/12/2013 1:45:05 AM</t>
+    <t>2013/3/12 1:45:05</t>
   </si>
   <si>
     <t>CallerName5</t>
@@ -126,7 +126,7 @@
     <t>CT5</t>
   </si>
   <si>
-    <t>3/12/2013 1:42:08 AM</t>
+    <t>2013/3/12 1:42:08</t>
   </si>
   <si>
     <t>CallerName6</t>
@@ -138,7 +138,7 @@
     <t>CT6</t>
   </si>
   <si>
-    <t>3/12/2013 1:47:05 AM</t>
+    <t>2013/3/12 1:47:05</t>
   </si>
   <si>
     <t>CallerName7</t>
@@ -150,7 +150,7 @@
     <t>CT7</t>
   </si>
   <si>
-    <t>3/15/2013 1:40:05 AM</t>
+    <t>2013/3/15 1:40:05</t>
   </si>
   <si>
     <t>CallerName8</t>
@@ -162,7 +162,19 @@
     <t>CT8</t>
   </si>
   <si>
-    <t>3/17/2013 1:40:05 AM</t>
+    <t>2013/3/17 1:40:05</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>7787777777</t>
+  </si>
+  <si>
+    <t>2013/3/20 1:40:05</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
   <si>
     <t>PatientID</t>
@@ -213,13 +225,10 @@
     <t>Patient9</t>
   </si>
   <si>
-    <t>Steve</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
-    <t>2013 March</t>
+    <t>2013 三月</t>
   </si>
   <si>
     <t>Total Number of Request</t>
@@ -397,8 +406,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -413,7 +422,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R70d157dc5a3b44ab"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R72cb5072df974c1a"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -424,21 +433,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.9261823381696" customWidth="1"/>
-    <col min="2" max="2" width="11.5297906058175" customWidth="1"/>
-    <col min="3" max="3" width="16.2307761056083" customWidth="1"/>
-    <col min="4" max="4" width="12.7318921770368" customWidth="1"/>
-    <col min="5" max="5" width="12.4955640520368" customWidth="1"/>
-    <col min="6" max="6" width="11.1379568917411" customWidth="1"/>
-    <col min="7" max="7" width="10.0698765345982" customWidth="1"/>
-    <col min="8" max="8" width="21.4289703369141" customWidth="1"/>
-    <col min="9" max="9" width="22.5226266043527" customWidth="1"/>
+    <col min="1" max="1" width="10.4837883843316" customWidth="1"/>
+    <col min="2" max="2" width="11.0706303914388" customWidth="1"/>
+    <col min="3" max="3" width="15.6410319010417" customWidth="1"/>
+    <col min="4" max="4" width="12.2393408881293" customWidth="1"/>
+    <col min="5" max="5" width="12.0095774332682" customWidth="1"/>
+    <col min="6" max="6" width="10.6896803114149" customWidth="1"/>
+    <col min="7" max="7" width="9.6512688530816" customWidth="1"/>
+    <col min="8" max="8" width="17.2115800645616" customWidth="1"/>
+    <col min="9" max="9" width="17.2115800645616" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -664,9 +673,7 @@
       <c r="F8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="0">
-        <v>7</v>
-      </c>
+      <c r="G8" s="0"/>
       <c r="H8" s="0" t="s">
         <v>41</v>
       </c>
@@ -730,6 +737,35 @@
       </c>
       <c r="I10" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0">
+        <v>12</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -751,19 +787,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -771,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C2" s="0">
         <v>10</v>
@@ -780,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +824,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C3" s="0">
         <v>11</v>
@@ -797,7 +833,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -805,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" s="0">
         <v>12</v>
@@ -814,7 +850,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -822,7 +858,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="0">
         <v>13</v>
@@ -831,7 +867,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -839,7 +875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C6" s="0">
         <v>14</v>
@@ -848,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -856,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C7" s="0">
         <v>15</v>
@@ -865,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -873,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C8" s="0">
         <v>16</v>
@@ -882,7 +918,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -890,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0">
         <v>17</v>
@@ -899,7 +935,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -907,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0">
         <v>18</v>
@@ -916,7 +952,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -924,7 +960,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C11" s="0">
         <v>19</v>
@@ -933,7 +969,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -941,7 +977,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="C12" s="0">
         <v>47</v>
@@ -950,7 +986,7 @@
         <v>33</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -966,37 +1002,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.957523890904" customWidth="1" style="1"/>
+    <col min="1" max="1" width="24.1253696017795" customWidth="1" style="1"/>
     <col min="2" max="2" width="13" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1">
-        <v>2.33333333333333</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="4"/>
   </sheetData>
   <headerFooter/>
-  <drawing r:id="R8814961794404233"/>
+  <drawing r:id="R98b9b94f85c34547"/>
 </worksheet>
 </file>
--- a/MvcApplication2/Content/ExcelPackageNewFile.xlsx
+++ b/MvcApplication2/Content/ExcelPackageNewFile.xlsx
@@ -5,15 +5,15 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Requests" sheetId="1" r:id="R836fae9e00e44e89"/>
-    <sheet name="Patients" sheetId="2" r:id="R67c6a5a20728416e"/>
-    <sheet name="RequestsStats" sheetId="3" r:id="R5ac4bcf91483404b"/>
+    <sheet name="Requests" sheetId="1" r:id="Rb7ac4e3c85584a1d"/>
+    <sheet name="Patients" sheetId="2" r:id="R87b79c21db954f66"/>
+    <sheet name="RequestsStats" sheetId="3" r:id="R5fd1fc3ff1ac4912"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Request ID</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>2013 June</t>
-  </si>
-  <si>
-    <t>2013 July</t>
   </si>
   <si>
     <t>Total Number of Request</t>
@@ -345,12 +342,12 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$1:$F$1</c:f>
+              <c:f>'RequestsStats'!$B$1:$E$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$2:$F$2</c:f>
+              <c:f>'RequestsStats'!$B$2:$E$2</c:f>
             </c:numRef>
           </c:val>
         </ser>
@@ -372,12 +369,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$1:$F$1</c:f>
+              <c:f>'RequestsStats'!$B$1:$E$1</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RequestsStats'!$B$3:$F$3</c:f>
+              <c:f>'RequestsStats'!$B$3:$E$3</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -455,7 +452,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2080850032ed4c65"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc9439fca190144c4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1125,7 +1122,9 @@
       <c r="C16" s="0">
         <v>4</v>
       </c>
-      <c r="D16" s="0"/>
+      <c r="D16" s="0">
+        <v>7</v>
+      </c>
       <c r="E16" s="0" t="s">
         <v>66</v>
       </c>
@@ -1137,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1148,7 +1147,6 @@
     <col min="3" max="3" width="13" customWidth="1" style="1"/>
     <col min="4" max="4" width="13" customWidth="1" style="1"/>
     <col min="5" max="5" width="13" customWidth="1" style="1"/>
-    <col min="6" max="6" width="13" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1167,13 +1165,10 @@
       <c r="E1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -1187,13 +1182,10 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1">
         <v>2.08333333333333</v>
@@ -1205,15 +1197,12 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4"/>
   </sheetData>
   <headerFooter/>
-  <drawing r:id="R9d945e0b294a4615"/>
+  <drawing r:id="R15b87d1886fb4a7d"/>
 </worksheet>
 </file>